--- a/carrera.xlsx
+++ b/carrera.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\importante\Facultad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\importante\Facultad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8420849-1FEA-4730-A364-A88C2D91E776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2F3004-4CE2-4135-BC5C-72F37DA68384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{9EAF091F-EF83-4EF9-8EEF-EE93EA71BDCC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{9EAF091F-EF83-4EF9-8EEF-EE93EA71BDCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,6 +578,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -916,7 +917,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,16 +1189,16 @@
       <c r="N15" s="16"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="24">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="11"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1222,18 +1223,18 @@
       <c r="N17" s="16"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="24">
         <v>2</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="1"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="N18" s="17"/>

--- a/carrera.xlsx
+++ b/carrera.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\importante\Facultad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2F3004-4CE2-4135-BC5C-72F37DA68384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D880E4D-BE6F-4C8B-9E75-35B85DDBEE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{9EAF091F-EF83-4EF9-8EEF-EE93EA71BDCC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28200" windowHeight="16440" xr2:uid="{9EAF091F-EF83-4EF9-8EEF-EE93EA71BDCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,12 +387,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,13 +468,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -497,34 +490,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -549,33 +520,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -914,67 +884,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DA05C1-243F-4C26-A040-C61F5D85FE6F}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="7"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="34">
+      <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="6"/>
       <c r="I2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="23"/>
       <c r="I3" s="1" t="s">
         <v>51</v>
       </c>
@@ -985,423 +947,311 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="A4" s="21">
         <v>1</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="38" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="9"/>
+      <c r="I4" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="A5" s="18">
         <v>1</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="N5" s="15"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="18">
         <v>1</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="N6" s="14"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+      <c r="A7" s="21">
         <v>1</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="N7" s="15"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
+      <c r="A8" s="18">
         <v>1</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="N8" s="15"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="N9" s="14"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+      <c r="A10" s="21">
         <v>1</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="N10" s="15"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="15">
         <v>2</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="N12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="N13" s="17"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="24">
         <v>2</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="N14" s="18"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="N15" s="16"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="15">
         <v>2</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="N16" s="17"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="D16" s="31"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
         <v>2</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="N17" s="16"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="D17" s="17"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
         <v>2</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="N18" s="17"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="D18" s="17"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
         <v>2</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="N19" s="16"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>3</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="N21" s="17"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="N22" s="16"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>3</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="N23" s="17"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>3</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="N24" s="16"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="N25" s="16"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>3</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="N26" s="16"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>3</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="N27" s="17"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="E27" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/carrera.xlsx
+++ b/carrera.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\importante\Facultad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D880E4D-BE6F-4C8B-9E75-35B85DDBEE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BED804D-12E3-42C9-89D0-0065BC7F3EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28200" windowHeight="16440" xr2:uid="{9EAF091F-EF83-4EF9-8EEF-EE93EA71BDCC}"/>
   </bookViews>
@@ -317,7 +317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +357,14 @@
       <color rgb="FF555555"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -468,7 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -517,9 +525,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -549,6 +554,11 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -884,39 +894,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DA05C1-243F-4C26-A040-C61F5D85FE6F}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="26"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="6"/>
       <c r="I2" s="1" t="s">
         <v>52</v>
@@ -924,19 +934,19 @@
       <c r="J2" s="1"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="22"/>
       <c r="I3" s="1" t="s">
         <v>51</v>
       </c>
@@ -946,26 +956,26 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="9"/>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>1</v>
       </c>
@@ -979,33 +989,33 @@
       <c r="E5" s="18"/>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="D6" s="22"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>1</v>
       </c>
@@ -1018,7 +1028,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -1030,25 +1040,26 @@
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
         <v>1</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>2</v>
       </c>
@@ -1062,7 +1073,7 @@
       <c r="E12" s="15"/>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -1075,36 +1086,36 @@
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
         <v>2</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
         <v>2</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D15" s="17"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>2</v>
       </c>
@@ -1114,10 +1125,10 @@
       <c r="C16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>2</v>
       </c>
@@ -1130,7 +1141,7 @@
       <c r="D17" s="17"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>2</v>
       </c>
@@ -1144,38 +1155,38 @@
       <c r="E18" s="15"/>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
         <v>2</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="23"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="14"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
         <v>3</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>3</v>
       </c>
@@ -1188,7 +1199,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>3</v>
       </c>
@@ -1200,8 +1211,9 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>3</v>
       </c>
@@ -1214,7 +1226,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>3</v>
       </c>
@@ -1227,7 +1239,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>3</v>
       </c>
@@ -1240,7 +1252,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>3</v>
       </c>

--- a/carrera.xlsx
+++ b/carrera.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\importante\Facultad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BED804D-12E3-42C9-89D0-0065BC7F3EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99694F5A-661F-4EBD-AED8-F3840392796F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28200" windowHeight="16440" xr2:uid="{9EAF091F-EF83-4EF9-8EEF-EE93EA71BDCC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>CNE</t>
   </si>
@@ -87,6 +87,120 @@
   </si>
   <si>
     <t>Algoritmos y Estructuras de Datos</t>
+  </si>
+  <si>
+    <t>SI210</t>
+  </si>
+  <si>
+    <t>Diseño de Bases de Datos</t>
+  </si>
+  <si>
+    <t>Ingeniería de Software 1</t>
+  </si>
+  <si>
+    <t>Orientación a Objetos 1</t>
+  </si>
+  <si>
+    <t>Introducción a los Sistemas Operativos</t>
+  </si>
+  <si>
+    <t>SI302</t>
+  </si>
+  <si>
+    <t>Ingeniería de Software 2</t>
+  </si>
+  <si>
+    <t>Orientación a Objetos 2</t>
+  </si>
+  <si>
+    <t>Redes y Comunicaciones ATIC</t>
+  </si>
+  <si>
+    <t>Programación Concurrente ATIC</t>
+  </si>
+  <si>
+    <t>Práctica Profesional Supervisada ATIC</t>
+  </si>
+  <si>
+    <t>MATERIA</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>Taller de lecto-comprensión y Traducción en Inglés</t>
+  </si>
+  <si>
+    <t>Seguridad y Privacidad en Redes</t>
+  </si>
+  <si>
+    <t>Introducción a la Ciberseguridad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI104	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI101	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI107	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI102	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI203	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI207	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI202	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI206	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI204	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI208	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI307	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT310	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT311	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPS ATIC	</t>
+  </si>
+  <si>
+    <t>O01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O20	</t>
+  </si>
+  <si>
+    <t>APROBADA</t>
+  </si>
+  <si>
+    <t>CURSADA</t>
+  </si>
+  <si>
+    <t>Cantidad de asignaturas aprobadas:</t>
+  </si>
+  <si>
+    <t>8/24</t>
+  </si>
+  <si>
+    <t>Cantidad de asignaturas cursadas:</t>
   </si>
   <si>
     <r>
@@ -96,8 +210,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF8E0404"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Display"/>
         <family val="2"/>
+        <scheme val="major"/>
       </rPr>
       <t>Android</t>
     </r>
@@ -105,8 +220,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF555555"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Display"/>
         <family val="2"/>
+        <scheme val="major"/>
       </rPr>
       <t>, </t>
     </r>
@@ -114,8 +230,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF8E0404"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Display"/>
         <family val="2"/>
+        <scheme val="major"/>
       </rPr>
       <t>C</t>
     </r>
@@ -123,8 +240,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF555555"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Display"/>
         <family val="2"/>
+        <scheme val="major"/>
       </rPr>
       <t>, </t>
     </r>
@@ -132,8 +250,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF8E0404"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Display"/>
         <family val="2"/>
+        <scheme val="major"/>
       </rPr>
       <t>PHP</t>
     </r>
@@ -141,8 +260,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF555555"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Display"/>
         <family val="2"/>
+        <scheme val="major"/>
       </rPr>
       <t>, </t>
     </r>
@@ -150,8 +270,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF8E0404"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Display"/>
         <family val="2"/>
+        <scheme val="major"/>
       </rPr>
       <t>.NET</t>
     </r>
@@ -159,8 +280,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF555555"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Display"/>
         <family val="2"/>
+        <scheme val="major"/>
       </rPr>
       <t>, </t>
     </r>
@@ -168,8 +290,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF8E0404"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Display"/>
         <family val="2"/>
+        <scheme val="major"/>
       </rPr>
       <t>Python</t>
     </r>
@@ -177,8 +300,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF555555"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Display"/>
         <family val="2"/>
+        <scheme val="major"/>
       </rPr>
       <t>, </t>
     </r>
@@ -186,8 +310,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF8E0404"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Display"/>
         <family val="2"/>
+        <scheme val="major"/>
       </rPr>
       <t>Javascript</t>
     </r>
@@ -195,154 +320,31 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF555555"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Display"/>
         <family val="2"/>
+        <scheme val="major"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>SI210</t>
-  </si>
-  <si>
-    <t>Diseño de Bases de Datos</t>
-  </si>
-  <si>
-    <t>Ingeniería de Software 1</t>
-  </si>
-  <si>
-    <t>Orientación a Objetos 1</t>
-  </si>
-  <si>
-    <t>Introducción a los Sistemas Operativos</t>
-  </si>
-  <si>
-    <t>SI302</t>
-  </si>
-  <si>
-    <t>Ingeniería de Software 2</t>
-  </si>
-  <si>
-    <t>Orientación a Objetos 2</t>
-  </si>
-  <si>
-    <t>Redes y Comunicaciones ATIC</t>
-  </si>
-  <si>
-    <t>Programación Concurrente ATIC</t>
-  </si>
-  <si>
-    <t>Práctica Profesional Supervisada ATIC</t>
-  </si>
-  <si>
-    <t>MATERIA</t>
-  </si>
-  <si>
-    <t>AÑO</t>
-  </si>
-  <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
-    <t>Taller de lecto-comprensión y Traducción en Inglés</t>
-  </si>
-  <si>
-    <t>Seguridad y Privacidad en Redes</t>
-  </si>
-  <si>
-    <t>Introducción a la Ciberseguridad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI104	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI101	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI107	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI102	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI203	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI207	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI202	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI206	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI204	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI208	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI307	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT310	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT311	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPS ATIC	</t>
-  </si>
-  <si>
-    <t>O01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O20	</t>
-  </si>
-  <si>
-    <t>Título: Analista en Tecnologías de la Información y la Comunicación</t>
-  </si>
-  <si>
-    <t>Cantidad de asignaturas: 7/24</t>
-  </si>
-  <si>
-    <t>APROBADA</t>
-  </si>
-  <si>
-    <t>CURSADA</t>
+    <t>19/24</t>
+  </si>
+  <si>
+    <t>Título: Analista en Tecnologías de la Información y la Comunicación - ATIC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF555555"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF8E0404"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -366,8 +368,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF8E0404"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,8 +448,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -471,94 +515,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -897,373 +994,392 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="3"/>
+      <c r="I2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>1</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="I3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>1</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="4"/>
+      <c r="I4" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <v>1</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>1</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>1</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="17"/>
+      <c r="L8" s="27"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <v>1</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="P9" s="17"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>1</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="K10" s="17"/>
+      <c r="P10" s="27"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
+        <v>2</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="37">
+        <v>2</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>2</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="37">
+        <v>2</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="37">
+        <v>2</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="37">
+        <v>2</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
+        <v>2</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>2</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="6"/>
-      <c r="I2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
-        <v>1</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="37">
         <v>3</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="22"/>
-      <c r="I3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <v>1</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="9"/>
-      <c r="I4" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
-        <v>1</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>1</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>1</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
-        <v>1</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>1</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>1</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>2</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>2</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
-        <v>2</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <v>2</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>2</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <v>2</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="B21" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
-        <v>2</v>
-      </c>
-      <c r="B19" s="23" t="s">
+      <c r="C21" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="42">
+        <v>3</v>
+      </c>
+      <c r="B22" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C22" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="37">
+        <v>3</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="42">
+        <v>3</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="42">
+        <v>3</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="42">
+        <v>3</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="42">
         <v>3</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>3</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="4"/>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>3</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>3</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>3</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
